--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/19.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/19.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1784398190879743</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.946791397255326</v>
+        <v>-1.942686472047736</v>
       </c>
       <c r="F2" t="n">
-        <v>0.131976162969434</v>
+        <v>0.1305394756479798</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1483793513506726</v>
+        <v>-0.1479865984142181</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1579990718387008</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.089965173097924</v>
+        <v>-2.085658031229743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06846115091872376</v>
+        <v>0.06755154095808764</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1209990695018617</v>
+        <v>-0.1208048831057709</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1492714645509021</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.302232804746594</v>
+        <v>-2.297167167895187</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0554258415630909</v>
+        <v>0.05423152222472758</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.14422989467631</v>
+        <v>-0.1437699795276738</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1551576529430538</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.472047348079958</v>
+        <v>-2.46673277302905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001036130080560045</v>
+        <v>0.0006024957975601618</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1695719493902123</v>
+        <v>-0.1692857799643942</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1711597188163201</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.543153880179348</v>
+        <v>-2.537366979571031</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07415050640887431</v>
+        <v>-0.07366431039460171</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.172312459656848</v>
+        <v>-0.1724278034560297</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1918563851813758</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.341982614021584</v>
+        <v>-2.337222857245221</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1268816032601329</v>
+        <v>-0.1248360758847698</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1480260197126727</v>
+        <v>-0.1481910051469453</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2112948461617623</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.034643220909348</v>
+        <v>-2.029441799585486</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.177524831341392</v>
+        <v>-0.1744120088115746</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1163794773422266</v>
+        <v>-0.1167357290764083</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2236621804870209</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.681327643438443</v>
+        <v>-1.675453869968717</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1074688038434108</v>
+        <v>-0.1046874122302297</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07332119909323817</v>
+        <v>-0.0735270658740563</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2204924162131321</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.250289325944195</v>
+        <v>-1.243700128909924</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008219566687830844</v>
+        <v>0.00917735823546695</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01052745079943685</v>
+        <v>-0.01068221589707317</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1951907202787314</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9382536881475514</v>
+        <v>-0.9303738086009171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07429550308999491</v>
+        <v>0.07407211573208589</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01594568926479903</v>
+        <v>-0.01587414690834451</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1425307975812262</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5748842195226489</v>
+        <v>-0.5654698294324697</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1468569731119754</v>
+        <v>0.145440726463794</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02245750375025183</v>
+        <v>-0.02143839018279756</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06017765350259805</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1322472799942223</v>
+        <v>-0.1208267838271345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01100387839719373</v>
+        <v>0.01004316675337581</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04622315844609336</v>
+        <v>0.04738243663027487</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05148413822582833</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3204026693416561</v>
+        <v>0.3332496324935618</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1621432247036689</v>
+        <v>-0.1628206870178505</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1135007144270753</v>
+        <v>0.1155477018505293</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1906607347091412</v>
       </c>
       <c r="E15" t="n">
-        <v>0.865172892925328</v>
+        <v>0.8781936018000518</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1791907462131188</v>
+        <v>-0.182018859365209</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1951539039111443</v>
+        <v>0.1972403126330528</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3495268082133459</v>
       </c>
       <c r="E16" t="n">
-        <v>1.566209143582776</v>
+        <v>1.577885148165773</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5128321756590293</v>
+        <v>-0.5161640054024829</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2603333707854904</v>
+        <v>0.2624373000844898</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.524366574359086</v>
       </c>
       <c r="E17" t="n">
-        <v>2.272668012849859</v>
+        <v>2.28277592578322</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.679309779080621</v>
+        <v>-0.6835220178228925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3702925126080063</v>
+        <v>0.3727351730640966</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7168006277159111</v>
       </c>
       <c r="E18" t="n">
-        <v>3.037204675077108</v>
+        <v>3.045543009724288</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9580811412220915</v>
+        <v>-0.962071452654545</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4809510174660676</v>
+        <v>0.4837528497525213</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9266811977574742</v>
       </c>
       <c r="E19" t="n">
-        <v>3.667279668420212</v>
+        <v>3.67404115112921</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.198175829435391</v>
+        <v>-1.202246443512844</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6010881545303081</v>
+        <v>0.6041819964349435</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.152560579784455</v>
       </c>
       <c r="E20" t="n">
-        <v>4.330821884103124</v>
+        <v>4.33452602610976</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.458763752652684</v>
+        <v>-1.462602219083683</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7122284752583691</v>
+        <v>0.7162859489030043</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.384215733829673</v>
       </c>
       <c r="E21" t="n">
-        <v>4.855732533554256</v>
+        <v>4.857976627469983</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.732121256473065</v>
+        <v>-1.73479606457561</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8603255332635111</v>
+        <v>0.8640997575785101</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.606478393045932</v>
       </c>
       <c r="E22" t="n">
-        <v>5.376374002387571</v>
+        <v>5.376051331759481</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.952312569111097</v>
+        <v>-1.954876413558733</v>
       </c>
       <c r="G22" t="n">
-        <v>0.947240736067215</v>
+        <v>0.9511974663935776</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.805502120064196</v>
       </c>
       <c r="E23" t="n">
-        <v>5.724122416487841</v>
+        <v>5.722152811613205</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.202366245352485</v>
+        <v>-2.203345937621485</v>
       </c>
       <c r="G23" t="n">
-        <v>1.056482994277095</v>
+        <v>1.061025203887912</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.968139989907585</v>
       </c>
       <c r="E24" t="n">
-        <v>6.149054812865909</v>
+        <v>6.144592905900092</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.433017342513786</v>
+        <v>-2.432474204623968</v>
       </c>
       <c r="G24" t="n">
-        <v>1.177271312789881</v>
+        <v>1.181035316768243</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.087471287064197</v>
       </c>
       <c r="E25" t="n">
-        <v>6.440944707104195</v>
+        <v>6.434025539201378</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.55715282127498</v>
+        <v>-2.557013386682299</v>
       </c>
       <c r="G25" t="n">
-        <v>1.251361453163043</v>
+        <v>1.255126917189496</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.159679819631956</v>
       </c>
       <c r="E26" t="n">
-        <v>6.607378509083059</v>
+        <v>6.59775533211588</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605944708376967</v>
+        <v>-2.606234527923013</v>
       </c>
       <c r="G26" t="n">
-        <v>1.315656130894298</v>
+        <v>1.318682810586752</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.183461755802127</v>
       </c>
       <c r="E27" t="n">
-        <v>6.71286260350694</v>
+        <v>6.702153150760124</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690826794214081</v>
+        <v>-2.689993836778217</v>
       </c>
       <c r="G27" t="n">
-        <v>1.326175777389295</v>
+        <v>1.329801076799021</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.163576120883109</v>
       </c>
       <c r="E28" t="n">
-        <v>6.897491524794709</v>
+        <v>6.884555498709257</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717212783312983</v>
+        <v>-2.717121530307301</v>
       </c>
       <c r="G28" t="n">
-        <v>1.36643222335183</v>
+        <v>1.369686670546465</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.106962301516469</v>
       </c>
       <c r="E29" t="n">
-        <v>6.862136460273354</v>
+        <v>6.848301044563903</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.73897114998775</v>
+        <v>-2.738263756687704</v>
       </c>
       <c r="G29" t="n">
-        <v>1.35259826769047</v>
+        <v>1.355642467960015</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.025165023698618</v>
       </c>
       <c r="E30" t="n">
-        <v>6.79778046052228</v>
+        <v>6.783212100671194</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640835477605413</v>
+        <v>-2.641271301960549</v>
       </c>
       <c r="G30" t="n">
-        <v>1.335971240031202</v>
+        <v>1.338974558954201</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.929426615209588</v>
       </c>
       <c r="E31" t="n">
-        <v>6.822627558933364</v>
+        <v>6.805634059203278</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541034620375394</v>
+        <v>-2.542151557164939</v>
       </c>
       <c r="G31" t="n">
-        <v>1.29768001879903</v>
+        <v>1.300654136760211</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.830184602044668</v>
       </c>
       <c r="E32" t="n">
-        <v>6.78240323402883</v>
+        <v>6.763597814617926</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.406753997454521</v>
+        <v>-2.408612638674247</v>
       </c>
       <c r="G32" t="n">
-        <v>1.251687043887315</v>
+        <v>1.254099043333496</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.734629179123317</v>
       </c>
       <c r="E33" t="n">
-        <v>6.616664414941238</v>
+        <v>6.596676356576698</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.372330443615166</v>
+        <v>-2.373675877930939</v>
       </c>
       <c r="G33" t="n">
-        <v>1.193590270301967</v>
+        <v>1.196032930758057</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.646135801095574</v>
       </c>
       <c r="E34" t="n">
-        <v>6.317539982412501</v>
+        <v>6.299327342526505</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.334547319118631</v>
+        <v>-2.336512543848994</v>
       </c>
       <c r="G34" t="n">
-        <v>1.143677066266162</v>
+        <v>1.146102206145162</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.565903388337048</v>
       </c>
       <c r="E35" t="n">
-        <v>6.121697891786553</v>
+        <v>6.103126080070195</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.297371574627914</v>
+        <v>-2.298469530792277</v>
       </c>
       <c r="G35" t="n">
-        <v>1.083417961458178</v>
+        <v>1.085533571141905</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.4922487218928</v>
       </c>
       <c r="E36" t="n">
-        <v>5.924757844996242</v>
+        <v>5.905915924383065</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.232996594251658</v>
+        <v>-2.234931887996158</v>
       </c>
       <c r="G36" t="n">
-        <v>1.061987375579821</v>
+        <v>1.063022549676275</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.423828004306974</v>
       </c>
       <c r="E37" t="n">
-        <v>5.618619341438779</v>
+        <v>5.600606728141238</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.188837439742125</v>
+        <v>-2.190096731220533</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9564755402422126</v>
+        <v>0.9580421718437576</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.359188578648627</v>
       </c>
       <c r="E38" t="n">
-        <v>5.312342133312679</v>
+        <v>5.294066711358775</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.142388199802001</v>
+        <v>-2.143699322987637</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8827869130940506</v>
+        <v>0.8843331040223229</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.296475040221309</v>
       </c>
       <c r="E39" t="n">
-        <v>4.997729510635582</v>
+        <v>4.979078856322314</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.083586222988744</v>
+        <v>-2.084741851052698</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8018535273187996</v>
+        <v>0.8037077883942536</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.236617168447284</v>
       </c>
       <c r="E40" t="n">
-        <v>4.706429475826024</v>
+        <v>4.687578794924302</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.103818839408511</v>
+        <v>-2.103976524602329</v>
       </c>
       <c r="G40" t="n">
-        <v>0.761658403376083</v>
+        <v>0.7629782868502646</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.179714136075239</v>
       </c>
       <c r="E41" t="n">
-        <v>4.385302118567292</v>
+        <v>4.367152260749206</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998565432582994</v>
+        <v>-1.999078639486948</v>
       </c>
       <c r="G41" t="n">
-        <v>0.682085782421559</v>
+        <v>0.683572111378104</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.126859726086791</v>
       </c>
       <c r="E42" t="n">
-        <v>4.006150990127757</v>
+        <v>3.989545863189853</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908170935178655</v>
+        <v>-1.908892928959609</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6030840402705802</v>
+        <v>0.6042637591280344</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.079039961456918</v>
       </c>
       <c r="E43" t="n">
-        <v>3.704283127236202</v>
+        <v>3.688386123622388</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.855613584050214</v>
+        <v>-1.856399089923123</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5628772359431364</v>
+        <v>0.564067175137227</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.034344637975519</v>
       </c>
       <c r="E44" t="n">
-        <v>3.401816644627374</v>
+        <v>3.38733296756556</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.76045494972524</v>
+        <v>-1.761405441032421</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5139685449938769</v>
+        <v>0.5147409104339675</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9913116507242661</v>
       </c>
       <c r="E45" t="n">
-        <v>3.119365961296813</v>
+        <v>3.105159693372272</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.677865869414898</v>
+        <v>-1.678740438221352</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4187967702360842</v>
+        <v>0.4200363510652657</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9464074488803428</v>
       </c>
       <c r="E46" t="n">
-        <v>2.824017213131166</v>
+        <v>2.810446066126169</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.599943102803101</v>
+        <v>-1.600521281847101</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3808442801610035</v>
+        <v>0.3820809408940032</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8970389480339551</v>
       </c>
       <c r="E47" t="n">
-        <v>2.493535327753982</v>
+        <v>2.480970153883622</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.478116690097679</v>
+        <v>-1.479240927127679</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3171234013294752</v>
+        <v>0.3183191807159294</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8420167320794268</v>
       </c>
       <c r="E48" t="n">
-        <v>2.199788252344061</v>
+        <v>2.188512300937973</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.373403501065798</v>
+        <v>-1.375136578149707</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2891196789458463</v>
+        <v>0.289748959673028</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7809001947840792</v>
       </c>
       <c r="E49" t="n">
-        <v>1.918467646235863</v>
+        <v>1.90858020056423</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.286736506437549</v>
+        <v>-1.28902002165173</v>
       </c>
       <c r="G49" t="n">
-        <v>0.234992776119679</v>
+        <v>0.2356935992033152</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7153032172355344</v>
       </c>
       <c r="E50" t="n">
-        <v>1.784302367114172</v>
+        <v>1.774390100624993</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.164638524787218</v>
+        <v>-1.167568841305672</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1968680003698711</v>
+        <v>0.1971862908536892</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6480216537841927</v>
       </c>
       <c r="E51" t="n">
-        <v>1.507791159417428</v>
+        <v>1.499676212128158</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.088895609975147</v>
+        <v>-1.091852207359237</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1661573488256975</v>
+        <v>0.1663223342599702</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.581600192069892</v>
       </c>
       <c r="E52" t="n">
-        <v>1.348038537502562</v>
+        <v>1.340786478635019</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.005948817882533</v>
+        <v>-1.009120042335987</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1435514242341581</v>
+        <v>0.1438565742851581</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.519705982709339</v>
       </c>
       <c r="E53" t="n">
-        <v>1.104692322190809</v>
+        <v>1.098313372081629</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9321229462138257</v>
+        <v>-0.9357876669220065</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1000551315578971</v>
+        <v>0.1002566181944425</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4644615415551123</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9590700456997573</v>
+        <v>0.9533378968948498</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9395341503232782</v>
+        <v>-0.942946282711732</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04923231756145619</v>
+        <v>0.04931554030263799</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4179809177683897</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7977770730489825</v>
+        <v>0.7923997159301658</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8935966572390179</v>
+        <v>-0.8970598913106533</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02128407700528188</v>
+        <v>0.02188561681873627</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3813000477368066</v>
       </c>
       <c r="E56" t="n">
-        <v>0.650855353757022</v>
+        <v>0.6468212408818412</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8438163175794858</v>
+        <v>-0.8476869050684848</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01498834963728357</v>
+        <v>0.01531394036155621</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3536964305006804</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5069530139170606</v>
+        <v>0.5032780728722434</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8112251240942219</v>
+        <v>-0.815796534666857</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01312633640125433</v>
+        <v>-0.01268102173352718</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3350179063202962</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3965792184367266</v>
+        <v>0.3934809963878183</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8060229727463142</v>
+        <v>-0.810246891873313</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02833565736425025</v>
+        <v>-0.02793706423543217</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3238438540016765</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2508007167999475</v>
+        <v>0.2477141751357665</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.741434825348786</v>
+        <v>-0.7456806451971485</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09391225731932355</v>
+        <v>-0.09319683375477829</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.318607160777292</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1905562124728728</v>
+        <v>0.1878624237451463</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7244471658110633</v>
+        <v>-0.7287353270540622</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08126386070778149</v>
+        <v>-0.08072072281796346</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3179040643974457</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03242716403509707</v>
+        <v>0.02992610165537047</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6969018985279798</v>
+        <v>-0.7010046336634332</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1376596782672209</v>
+        <v>-0.1369924362896756</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3199862756748881</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05455958112506139</v>
+        <v>-0.05710152485133344</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.715450349474884</v>
+        <v>-0.7195311838889737</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1696026104001214</v>
+        <v>-0.1692609591468488</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.323855213069094</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1483019688018544</v>
+        <v>-0.1505533629580356</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7492431625389657</v>
+        <v>-0.7532495345004192</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1849418756432082</v>
+        <v>-0.184560803091481</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3283524895054348</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.260921318246006</v>
+        <v>-0.2635450246653689</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7520333144406923</v>
+        <v>-0.755972524189964</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2181097881243811</v>
+        <v>-0.2177184952360176</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3321257577496478</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4137197311038741</v>
+        <v>-0.416102529588237</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7331840935870609</v>
+        <v>-0.7375087560323326</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2386044831764665</v>
+        <v>-0.2382730522598303</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3343360737878648</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4378265851328675</v>
+        <v>-0.4410970928565031</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7635706144550528</v>
+        <v>-0.7678295747362335</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2538196443318261</v>
+        <v>-0.2539203876500988</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3342844154594833</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5245519816847534</v>
+        <v>-0.5273538139712072</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8041876922960419</v>
+        <v>-0.808342989162768</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2686785537530039</v>
+        <v>-0.2689793236597311</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.331388293032594</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5574731460385627</v>
+        <v>-0.5610210628994708</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7517077237164197</v>
+        <v>-0.7571069815566001</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3207234280015354</v>
+        <v>-0.3203744765078082</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.3256963132728781</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6383583502268138</v>
+        <v>-0.6418201242503583</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.797997088390589</v>
+        <v>-0.8029028499760422</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.318523135528536</v>
+        <v>-0.3187363025498086</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.3170683781939034</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7480736640181479</v>
+        <v>-0.751269709289147</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7939980166695901</v>
+        <v>-0.7999988143232248</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3587489204811615</v>
+        <v>-0.3584802716324343</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.3064313194572958</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7761576890467767</v>
+        <v>-0.7795011991749576</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9234020789668281</v>
+        <v>-0.9284027436781904</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4037067212964222</v>
+        <v>-0.4029927577799678</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2951582775712226</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8183326382007654</v>
+        <v>-0.8218644945326735</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.989959831238992</v>
+        <v>-0.9950437186915361</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4209951507408721</v>
+        <v>-0.4205074946785086</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2846078357115225</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8704140136515696</v>
+        <v>-0.8729807781953871</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.024946963641437</v>
+        <v>-1.029477492867527</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4542988476944995</v>
+        <v>-0.4536067848994088</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2752711200476926</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8132487507482213</v>
+        <v>-0.8154884645196753</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.049843703687612</v>
+        <v>-1.054536298251793</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4688642874494047</v>
+        <v>-0.468107982538314</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2675337573317821</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7975853548289528</v>
+        <v>-0.7992746304701341</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.116115286533958</v>
+        <v>-1.119987334071048</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4576058566204077</v>
+        <v>-0.4568218107955898</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2613745478146222</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7141917880205206</v>
+        <v>-0.7158708433250657</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.159385271756128</v>
+        <v>-1.162644099095037</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4602354032321343</v>
+        <v>-0.4596572241881344</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2568844802472529</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5626227356551977</v>
+        <v>-0.5650026140433789</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.143146616889042</v>
+        <v>-1.147091666830677</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4407393810742304</v>
+        <v>-0.4398677323639579</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2538533649214096</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4231458015787806</v>
+        <v>-0.4263418468497797</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.168107599051217</v>
+        <v>-1.171524111583943</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4537527897084996</v>
+        <v>-0.4523876447435</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2526122995426046</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3200196848217174</v>
+        <v>-0.3232201102369893</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.250591555899013</v>
+        <v>-1.253228402751194</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3971511053682421</v>
+        <v>-0.396098410694697</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2531073742709304</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1309711979627682</v>
+        <v>-0.1342942674176763</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.308318937317361</v>
+        <v>-1.310418486472088</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3746722049606118</v>
+        <v>-0.373645791152703</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.255687799981518</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02807184057991642</v>
+        <v>0.0243092966496447</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301402689510727</v>
+        <v>-1.302345880577454</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3239632747152618</v>
+        <v>-0.3233763353827165</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2603779170088705</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2403321719881321</v>
+        <v>0.2362162964198605</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.290091696950457</v>
+        <v>-1.290518030993002</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2880081304285442</v>
+        <v>-0.2875744961455443</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2662639818705517</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4227958419570831</v>
+        <v>0.4187223077834479</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.231126194751018</v>
+        <v>-1.231762775718654</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2700743597279126</v>
+        <v>-0.2696567859739127</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2726876938565996</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6288465888346642</v>
+        <v>0.6252928317813924</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.153130425734676</v>
+        <v>-1.154080917041857</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2456448350708283</v>
+        <v>-0.2452214211244647</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2780862209599999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7426120760301791</v>
+        <v>0.7401066335061798</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.06449382623179</v>
+        <v>-1.066096959035608</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2097422525153834</v>
+        <v>-0.209524705349838</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2803545050348474</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9683384309808457</v>
+        <v>0.9652767101342102</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9988398437278987</v>
+        <v>-0.9999173592189894</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1808887821428456</v>
+        <v>-0.1803514844453913</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.277378567361423</v>
       </c>
       <c r="E87" t="n">
-        <v>1.111447964707444</v>
+        <v>1.108660732901899</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9434967208420045</v>
+        <v>-0.9441114010882771</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1510541594532173</v>
+        <v>-0.1505650433427629</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2659495220978614</v>
       </c>
       <c r="E88" t="n">
-        <v>1.213471745155871</v>
+        <v>1.211503600329326</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.88916541128311</v>
+        <v>-0.8894749414783827</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.114646400258318</v>
+        <v>-0.1140872018395</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2441858889015386</v>
       </c>
       <c r="E89" t="n">
-        <v>1.335419341852838</v>
+        <v>1.333420536016384</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7937804695040447</v>
+        <v>-0.7928226779564086</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1129775652904093</v>
+        <v>-0.1123716453326822</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.209945125382317</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371903023548465</v>
+        <v>1.371278122965556</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6936547515737989</v>
+        <v>-0.6927393014207991</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07842844731523679</v>
+        <v>-0.07800211327269146</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1637277245276878</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415876751950453</v>
+        <v>1.415565761707089</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5886086715771908</v>
+        <v>-0.5870654007451003</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01647130657752616</v>
+        <v>-0.01683485855216243</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.106662242937811</v>
       </c>
       <c r="E92" t="n">
-        <v>1.439265262318719</v>
+        <v>1.43925066183781</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4612238557896794</v>
+        <v>-0.4589622412968619</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02036817493216148</v>
+        <v>-0.02006302488116156</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04171997748739636</v>
       </c>
       <c r="E93" t="n">
-        <v>1.410089121318091</v>
+        <v>1.410677520698727</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3527568831160722</v>
+        <v>-0.3501448570814366</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01388264131234504</v>
+        <v>-0.01363881328116329</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02649768216405103</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410851266421545</v>
+        <v>1.410829365700182</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2132770289434733</v>
+        <v>-0.2110708962781103</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01632384172034438</v>
+        <v>-0.01641290465388982</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09400220940129356</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335943499117474</v>
+        <v>1.33649831739202</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09693309681941364</v>
+        <v>-0.09501459362795962</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01878986294588918</v>
+        <v>-0.01891980722598005</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1564998215810419</v>
       </c>
       <c r="E96" t="n">
-        <v>1.258175497603313</v>
+        <v>1.258395964865041</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03051012089173395</v>
+        <v>0.03199790989636991</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03377871664715788</v>
+        <v>-0.03374513554106698</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.211055401427235</v>
       </c>
       <c r="E97" t="n">
-        <v>1.175396611041154</v>
+        <v>1.176133935327063</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1320316447968885</v>
+        <v>0.1326974267263429</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05242791091233469</v>
+        <v>-0.0525315743267892</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2573809363555516</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076619977546908</v>
+        <v>1.078017243569907</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1931025363434176</v>
+        <v>0.1936018727905083</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0576490428854242</v>
+        <v>-0.05766072327015147</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.294373930710036</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9389929244016718</v>
+        <v>0.9403347085972169</v>
       </c>
       <c r="F99" t="n">
-        <v>0.194854594052508</v>
+        <v>0.1952356666042352</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0511372283999714</v>
+        <v>-0.05200887711024389</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3257821868828785</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8442022221956064</v>
+        <v>0.8458009748551514</v>
       </c>
       <c r="F100" t="n">
-        <v>0.211566304501049</v>
+        <v>0.2116261664727762</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04514373098679119</v>
+        <v>-0.0455978059430638</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3526099678810334</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6904883591847385</v>
+        <v>0.6928930583904652</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1979002543701436</v>
+        <v>0.198357249422598</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04937349030615369</v>
+        <v>-0.04981442482960812</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3775150467759776</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6314396342441181</v>
+        <v>0.6332384134921175</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2071715597474138</v>
+        <v>0.2071175379680502</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08150768873896325</v>
+        <v>-0.08191066201205405</v>
       </c>
     </row>
   </sheetData>
